--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4138,6 +4138,606 @@
       </c>
       <c r="H123" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.601</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="G124" t="n">
+        <v>61.74</v>
+      </c>
+      <c r="H124" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G125" t="n">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="G126" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="H126" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="G127" t="n">
+        <v>61.31</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="G128" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.347</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="G129" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.358</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="G130" t="n">
+        <v>83.36</v>
+      </c>
+      <c r="H130" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="G131" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="G132" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="H132" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.327</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="G133" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="H133" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="G134" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G135" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="H135" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="G136" t="n">
+        <v>41.01</v>
+      </c>
+      <c r="H136" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G137" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.416</v>
+      </c>
+      <c r="G138" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>37.26</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="G140" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="H140" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.589</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="G141" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="G142" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.287</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="G143" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -4151,7 +4751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7439,6 +8039,546 @@
       </c>
       <c r="H109" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="G110" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="G111" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="G112" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="G113" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="H113" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.184</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="G114" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="H114" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="G115" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.117</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="G116" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="G117" t="n">
+        <v>76.56</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.451</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G118" t="n">
+        <v>98.66</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G119" t="n">
+        <v>76.58</v>
+      </c>
+      <c r="H119" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="G120" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="G121" t="n">
+        <v>75.93000000000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="G122" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="G123" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="H123" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.301</v>
+      </c>
+      <c r="G124" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="G125" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="G126" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="G127" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="H127" t="n">
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>
@@ -7452,7 +8592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11520,6 +12660,696 @@
       </c>
       <c r="H135" t="n">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G137" t="n">
+        <v>65.42</v>
+      </c>
+      <c r="H137" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.986</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="G138" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="G139" t="n">
+        <v>61.23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G140" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="G141" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="H141" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.336</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G142" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="H142" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.718</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G143" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="G144" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="G145" t="n">
+        <v>60.42</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.697</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="G146" t="n">
+        <v>95.31999999999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="G147" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="G148" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="H148" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="G149" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="H149" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G150" t="n">
+        <v>78.18000000000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.691</v>
+      </c>
+      <c r="G151" t="n">
+        <v>78.93000000000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="G152" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="H152" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="G153" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="H153" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="G154" t="n">
+        <v>36.48</v>
+      </c>
+      <c r="H154" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="G155" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="G156" t="n">
+        <v>45.91</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="G157" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="H157" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="G158" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -11533,7 +13363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16891,6 +18721,1056 @@
       </c>
       <c r="H178" t="n">
         <v>4.6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="G179" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="H179" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.014</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="G180" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="H180" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>4</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G181" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="H181" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="G182" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="H182" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="G183" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="G184" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="H184" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="G185" t="n">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G186" t="n">
+        <v>74</v>
+      </c>
+      <c r="H186" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G187" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="H187" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="G188" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="H188" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="G189" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.319</v>
+      </c>
+      <c r="G190" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="H190" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="G191" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G192" t="n">
+        <v>58.61</v>
+      </c>
+      <c r="H192" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="G193" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.328</v>
+      </c>
+      <c r="G194" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="H194" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="G195" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="H195" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G196" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="H196" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="G197" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="H197" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G198" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="H198" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.963</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="G199" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="G200" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="H200" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="G201" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.402</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="G202" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="H202" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="G203" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="H203" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="G204" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="H204" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G205" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="H205" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3.378</v>
+      </c>
+      <c r="G206" t="n">
+        <v>84.73</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="G207" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="H207" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.401</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="G208" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="G209" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="H209" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="G210" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.203</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="G211" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="H211" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.943</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="G212" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G213" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="H213" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -16904,7 +19784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21002,6 +23882,606 @@
       </c>
       <c r="H136" t="n">
         <v>6.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="G137" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="H137" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4.347</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.802</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="G139" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G140" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.227</v>
+      </c>
+      <c r="G141" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="H141" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.394</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="G142" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="G143" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="H143" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="G144" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="G145" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="H145" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.576</v>
+      </c>
+      <c r="G146" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="H146" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.409</v>
+      </c>
+      <c r="G147" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.071</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G148" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="H148" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="G149" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="H149" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="G150" t="n">
+        <v>77.43000000000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="G151" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="H151" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="G152" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="H152" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="G153" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="H153" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="G154" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="H154" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.629</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="G156" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -21015,7 +24495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24665,6 +28145,606 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="G122" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="G123" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.939</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="G124" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="G126" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="H126" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="G127" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="H127" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.274</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="G128" t="n">
+        <v>89.05</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H129" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="G130" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.382</v>
+      </c>
+      <c r="G131" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="G132" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="G133" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="G134" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="G135" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="G136" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="G137" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="G138" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="H138" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.763</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G139" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="G140" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="H140" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G141" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4738,6 +4738,306 @@
       </c>
       <c r="H143" t="n">
         <v>5.8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="G144" t="n">
+        <v>37.22</v>
+      </c>
+      <c r="H144" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G145" t="n">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="G146" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="H146" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="G147" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="H147" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="G148" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="H148" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="G149" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="H149" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G150" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="G151" t="n">
+        <v>46.33</v>
+      </c>
+      <c r="H151" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="G152" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="H152" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="G153" t="n">
+        <v>75.48</v>
+      </c>
+      <c r="H153" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +5051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8579,6 +8879,246 @@
       </c>
       <c r="H127" t="n">
         <v>9.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="G128" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="H128" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G129" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="G130" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="H130" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="G131" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="H131" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.356</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.748</v>
+      </c>
+      <c r="G132" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G133" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G134" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.611</v>
+      </c>
+      <c r="G135" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -8592,7 +9132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13350,6 +13890,306 @@
       </c>
       <c r="H158" t="n">
         <v>4.3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.447</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G159" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="H159" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="G160" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="H160" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="G161" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="H161" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.149</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="G162" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H162" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="G163" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.544</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="G164" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.614</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G165" t="n">
+        <v>78.48999999999999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="G166" t="n">
+        <v>72.73999999999999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.897</v>
+      </c>
+      <c r="G167" t="n">
+        <v>76.43000000000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G168" t="n">
+        <v>65.29000000000001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -13363,7 +14203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19771,6 +20611,336 @@
       </c>
       <c r="H213" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G214" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="H214" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.874</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="G215" t="n">
+        <v>85.20999999999999</v>
+      </c>
+      <c r="H215" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="G216" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="H216" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G217" t="n">
+        <v>34.86</v>
+      </c>
+      <c r="H217" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="G218" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="H218" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="G219" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.606</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="G220" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="H220" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="G221" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="H221" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G222" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="H222" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="G223" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="H223" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="G224" t="n">
+        <v>57.83</v>
+      </c>
+      <c r="H224" t="n">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -19784,7 +20954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24482,6 +25652,306 @@
       </c>
       <c r="H156" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.631</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G157" t="n">
+        <v>89.56999999999999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.414</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="G158" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="G159" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="H159" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.584</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="G160" t="n">
+        <v>47.33</v>
+      </c>
+      <c r="H160" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.662</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="G161" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="H161" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G162" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="H162" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="G163" t="n">
+        <v>68.91</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.649</v>
+      </c>
+      <c r="G164" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G165" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="H165" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="G166" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="H166" t="n">
+        <v>12.6</v>
       </c>
     </row>
   </sheetData>
@@ -24495,7 +25965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28745,6 +30215,306 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="G142" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="G143" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.951</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="G144" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="H144" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.607</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="G145" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="H145" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.303</v>
+      </c>
+      <c r="G146" t="n">
+        <v>44.62</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="G147" t="n">
+        <v>80.58</v>
+      </c>
+      <c r="H147" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.453</v>
+      </c>
+      <c r="G148" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="H148" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="G149" t="n">
+        <v>55.09</v>
+      </c>
+      <c r="H149" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.326</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="G150" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="G151" t="n">
+        <v>37.38</v>
+      </c>
+      <c r="H151" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5038,6 +5038,36 @@
       </c>
       <c r="H153" t="n">
         <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G154" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9132,7 +9162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14190,6 +14220,126 @@
       </c>
       <c r="H168" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="G169" t="n">
+        <v>52.45</v>
+      </c>
+      <c r="H169" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G170" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G171" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G172" t="n">
+        <v>92.81999999999999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
@@ -14203,7 +14353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20941,6 +21091,246 @@
       </c>
       <c r="H224" t="n">
         <v>12.5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="G225" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="H225" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G226" t="n">
+        <v>69.87</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>4</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.613</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="G227" t="n">
+        <v>58.09</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="G228" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="H228" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.167</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="G229" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="G230" t="n">
+        <v>24</v>
+      </c>
+      <c r="H230" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.223</v>
+      </c>
+      <c r="G231" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="H231" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>2</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="G232" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -25965,7 +26355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30515,6 +30905,36 @@
         <v>9.1</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.003</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="G152" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="H152" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5068,6 +5068,576 @@
       </c>
       <c r="H154" t="n">
         <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="G155" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="H156" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="G157" t="n">
+        <v>33</v>
+      </c>
+      <c r="H157" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="G158" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="H158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.582</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="G159" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G160" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="H160" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.314</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G161" t="n">
+        <v>44.62</v>
+      </c>
+      <c r="H161" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="G162" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="H162" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G163" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="G164" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="H164" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="G165" t="n">
+        <v>35.03</v>
+      </c>
+      <c r="H165" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.353</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.308</v>
+      </c>
+      <c r="G166" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="G167" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="H167" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.979</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="G169" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.703</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="G170" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.424</v>
+      </c>
+      <c r="G171" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.313</v>
+      </c>
+      <c r="G172" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="H172" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.736</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="G173" t="n">
+        <v>70.22</v>
+      </c>
+      <c r="H173" t="n">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -9162,7 +9732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14340,6 +14910,516 @@
       </c>
       <c r="H172" t="n">
         <v>4.4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.313</v>
+      </c>
+      <c r="G173" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="G174" t="n">
+        <v>33.78</v>
+      </c>
+      <c r="H174" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="G175" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.532</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="G176" t="n">
+        <v>70.88</v>
+      </c>
+      <c r="H176" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.327</v>
+      </c>
+      <c r="G177" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="H177" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G178" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="G179" t="n">
+        <v>56.84</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G180" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="H180" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G181" t="n">
+        <v>78.88</v>
+      </c>
+      <c r="H181" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.965</v>
+      </c>
+      <c r="G182" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="H182" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.549</v>
+      </c>
+      <c r="G183" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="H183" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="G184" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="H184" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.124</v>
+      </c>
+      <c r="G185" t="n">
+        <v>48.22</v>
+      </c>
+      <c r="H185" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G186" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2</v>
+      </c>
+      <c r="G187" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="H187" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.338</v>
+      </c>
+      <c r="G188" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="H188" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="G189" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="H189" t="n">
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
@@ -14353,7 +15433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21331,6 +22411,606 @@
       </c>
       <c r="H232" t="n">
         <v>2.6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="G233" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="H233" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G234" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="H234" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G235" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="H235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="G236" t="n">
+        <v>36.86</v>
+      </c>
+      <c r="H236" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.193</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="G237" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.509</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="G238" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="H238" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="G239" t="n">
+        <v>36.54</v>
+      </c>
+      <c r="H239" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>4</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="G240" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="G241" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="H241" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="G242" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="H242" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="G243" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="H243" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="G244" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="H244" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="G245" t="n">
+        <v>38.92</v>
+      </c>
+      <c r="H245" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="G246" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="H246" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="G247" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="H247" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="G248" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="H248" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="G249" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="H249" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G250" t="n">
+        <v>77.45</v>
+      </c>
+      <c r="H250" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="G251" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="H251" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>3</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2.808</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G252" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -21344,7 +23024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26342,6 +28022,606 @@
       </c>
       <c r="H166" t="n">
         <v>12.6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.244</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>46.32</v>
+      </c>
+      <c r="H167" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.329</v>
+      </c>
+      <c r="G168" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="H168" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.281</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="G169" t="n">
+        <v>43.86</v>
+      </c>
+      <c r="H169" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="G170" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="G171" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="H171" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="G172" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="H172" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="G174" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="H174" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.209</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G175" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="H175" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="G176" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="H176" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="H177" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="G178" t="n">
+        <v>58.39</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="G179" t="n">
+        <v>81.08</v>
+      </c>
+      <c r="H179" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="G180" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H180" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="G181" t="n">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="G182" t="n">
+        <v>57.34</v>
+      </c>
+      <c r="H182" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.253</v>
+      </c>
+      <c r="G183" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="H183" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="G184" t="n">
+        <v>80.31999999999999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3.428</v>
+      </c>
+      <c r="G185" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.598</v>
+      </c>
+      <c r="G186" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H186" t="n">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +28635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30935,6 +33215,576 @@
         <v>4.8</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="G153" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="H153" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="G154" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="H154" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.686</v>
+      </c>
+      <c r="G155" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="G156" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G157" t="n">
+        <v>56.12</v>
+      </c>
+      <c r="H157" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="G158" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>23</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G160" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="H160" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.997</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>95.78</v>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="G162" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H162" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="G163" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="H163" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.498</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G164" t="n">
+        <v>71</v>
+      </c>
+      <c r="H164" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="G165" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="G166" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="H166" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G167" t="n">
+        <v>83.53</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.687</v>
+      </c>
+      <c r="G168" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="H168" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.272</v>
+      </c>
+      <c r="G169" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="G170" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>3</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="G171" t="n">
+        <v>40.87</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5638,6 +5638,306 @@
       </c>
       <c r="H173" t="n">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="G174" t="n">
+        <v>82.03</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.513</v>
+      </c>
+      <c r="G175" t="n">
+        <v>73.61</v>
+      </c>
+      <c r="H175" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="G176" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H176" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.351</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="G177" t="n">
+        <v>69.42</v>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="G178" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="H178" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="G179" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="H179" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.529</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="G180" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="H180" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>4</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G181" t="n">
+        <v>45.14</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="G182" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="H182" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="G183" t="n">
+        <v>53.38</v>
+      </c>
+      <c r="H183" t="n">
+        <v>24.8</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9719,6 +10019,786 @@
       </c>
       <c r="H135" t="n">
         <v>4.8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="G136" t="n">
+        <v>73.61</v>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="G137" t="n">
+        <v>57.49</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.707</v>
+      </c>
+      <c r="G138" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="G139" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="H139" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="G140" t="n">
+        <v>62.57</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G141" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="H141" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.809</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="G142" t="n">
+        <v>74.70999999999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.299</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="G143" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="G144" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="H144" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.716</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="G145" t="n">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="G146" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G147" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.351</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="G148" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.354</v>
+      </c>
+      <c r="G149" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="H149" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="G150" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="H150" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="G151" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="G152" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="G153" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H153" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.113</v>
+      </c>
+      <c r="G154" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.598</v>
+      </c>
+      <c r="G155" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="H155" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.663</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="G157" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>89.61</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G159" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="H159" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="G160" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="H160" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="G161" t="n">
+        <v>38.77</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -9732,7 +10812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15420,6 +16500,306 @@
       </c>
       <c r="H189" t="n">
         <v>9.4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.423</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.396</v>
+      </c>
+      <c r="G190" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="H190" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="G191" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="H191" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="G192" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="H192" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G193" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G194" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="H194" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G195" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="H195" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="G196" t="n">
+        <v>87.08</v>
+      </c>
+      <c r="H196" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.284</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="G197" t="n">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="G198" t="n">
+        <v>79.16</v>
+      </c>
+      <c r="H198" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="G199" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -15433,7 +16813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23011,6 +24391,366 @@
       </c>
       <c r="H252" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1.652</v>
+      </c>
+      <c r="G253" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="H253" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="G254" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="H254" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="G255" t="n">
+        <v>77.05</v>
+      </c>
+      <c r="H255" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G256" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.637</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="G257" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="H257" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="G258" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="H258" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G259" t="n">
+        <v>34.36</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>4</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="G260" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>3</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="G261" t="n">
+        <v>79.27</v>
+      </c>
+      <c r="H261" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="G262" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="H262" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>4</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1.261</v>
+      </c>
+      <c r="G263" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="G264" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="H264" t="n">
+        <v>10.4</v>
       </c>
     </row>
   </sheetData>
@@ -23024,7 +24764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28622,6 +30362,306 @@
       </c>
       <c r="H186" t="n">
         <v>7.1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="G187" t="n">
+        <v>39.02</v>
+      </c>
+      <c r="H187" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G188" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="H188" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G189" t="n">
+        <v>52.33</v>
+      </c>
+      <c r="H189" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G190" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="H190" t="n">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.567</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="G191" t="n">
+        <v>63.91</v>
+      </c>
+      <c r="H191" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="G192" t="n">
+        <v>57.46</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="G193" t="n">
+        <v>59.55</v>
+      </c>
+      <c r="H193" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="G194" t="n">
+        <v>55</v>
+      </c>
+      <c r="H194" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G195" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="H195" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="G196" t="n">
+        <v>74.65000000000001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -28635,7 +30675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33785,6 +35825,306 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="G172" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="G173" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="H173" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.303</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="G174" t="n">
+        <v>90.64</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="G175" t="n">
+        <v>52.51</v>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G176" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="H176" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.586</v>
+      </c>
+      <c r="G177" t="n">
+        <v>79.18000000000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="G178" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="H178" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="G179" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G180" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="G181" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5938,6 +5938,276 @@
       </c>
       <c r="H183" t="n">
         <v>24.8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="G184" t="n">
+        <v>73.42</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G185" t="n">
+        <v>75.08</v>
+      </c>
+      <c r="H185" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="G186" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="H186" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="G187" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="H187" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="G188" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="G189" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="G190" t="n">
+        <v>37.99</v>
+      </c>
+      <c r="H190" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="G191" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="H191" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="G192" t="n">
+        <v>51.64</v>
+      </c>
+      <c r="H192" t="n">
+        <v>11.3</v>
       </c>
     </row>
   </sheetData>
@@ -5951,7 +6221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10799,6 +11069,306 @@
       </c>
       <c r="H161" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="G162" t="n">
+        <v>52.26</v>
+      </c>
+      <c r="H162" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.603</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="G163" t="n">
+        <v>68.44</v>
+      </c>
+      <c r="H163" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.576</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="G164" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="G165" t="n">
+        <v>39.51</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="G166" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="H166" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G168" t="n">
+        <v>87.44</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="G169" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="H169" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="G170" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="H170" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.309</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="G171" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="H171" t="n">
+        <v>4.6</v>
       </c>
     </row>
   </sheetData>
@@ -10812,7 +11382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16800,6 +17370,336 @@
       </c>
       <c r="H199" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G200" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="G201" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="H201" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G202" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.302</v>
+      </c>
+      <c r="G203" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.619</v>
+      </c>
+      <c r="G204" t="n">
+        <v>62.96</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G205" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="H205" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="G206" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="G207" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="H207" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="G208" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="G209" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="H209" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="G210" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="H210" t="n">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -16813,7 +17713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24751,6 +25651,576 @@
       </c>
       <c r="H264" t="n">
         <v>10.4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>2</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="G265" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="H265" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G266" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="H266" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="G267" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="H267" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="G268" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="H268" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="G269" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="H269" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="G270" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="H270" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="G271" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="H271" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2.335</v>
+      </c>
+      <c r="G272" t="n">
+        <v>67.18000000000001</v>
+      </c>
+      <c r="H272" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.358</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="G273" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="G274" t="n">
+        <v>52.85</v>
+      </c>
+      <c r="H274" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="G275" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="H275" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="G276" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="H276" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="G277" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="H277" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>4</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="G278" t="n">
+        <v>66.88</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G279" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="H279" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G280" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="H280" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="G281" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="H281" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="G282" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="H282" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>3</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G283" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -24764,7 +26234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30662,6 +32132,276 @@
       </c>
       <c r="H196" t="n">
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="G197" t="n">
+        <v>75.22</v>
+      </c>
+      <c r="H197" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.084</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="G198" t="n">
+        <v>76.88</v>
+      </c>
+      <c r="H198" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.003</v>
+      </c>
+      <c r="G199" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G200" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="H200" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.609</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G201" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="H201" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="G202" t="n">
+        <v>54.57</v>
+      </c>
+      <c r="H202" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="G203" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="H203" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="G204" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="G205" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -30675,7 +32415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36125,6 +37865,306 @@
         <v>8</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="G182" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="G183" t="n">
+        <v>64.53</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="G184" t="n">
+        <v>43.13</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="G185" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="H185" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G186" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="H186" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="G187" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.484</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="G188" t="n">
+        <v>75.14</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="G189" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="H189" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="G190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="H190" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.277</v>
+      </c>
+      <c r="G191" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5758,6 +5758,1056 @@
       </c>
       <c r="H177" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="G178" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="H178" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="G179" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="H179" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.529</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="G180" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="H180" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>4</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G181" t="n">
+        <v>45.14</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="G182" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="H182" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="G183" t="n">
+        <v>53.38</v>
+      </c>
+      <c r="H183" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="G184" t="n">
+        <v>73.42</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G185" t="n">
+        <v>75.08</v>
+      </c>
+      <c r="H185" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="G186" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="H186" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="G187" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="H187" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="G188" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="G189" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="G190" t="n">
+        <v>37.99</v>
+      </c>
+      <c r="H190" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="G191" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="H191" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="G192" t="n">
+        <v>51.64</v>
+      </c>
+      <c r="H192" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G193" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="H193" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G194" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="G195" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="H195" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="G196" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="H196" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="G197" t="n">
+        <v>56.29</v>
+      </c>
+      <c r="H197" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G198" t="n">
+        <v>46</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="G199" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="H199" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>2</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2.513</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="G200" t="n">
+        <v>74.56</v>
+      </c>
+      <c r="H200" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="G201" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.597</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="G202" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="G203" t="n">
+        <v>68.19</v>
+      </c>
+      <c r="H203" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G204" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="H204" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="G205" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="H205" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G206" t="n">
+        <v>77.16</v>
+      </c>
+      <c r="H206" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G207" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2.655</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="G208" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G209" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="H209" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="G210" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="G211" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G212" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
@@ -5771,7 +6821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10559,6 +11609,636 @@
       </c>
       <c r="H159" t="n">
         <v>13.3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="G160" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="H160" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="G161" t="n">
+        <v>38.77</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="G162" t="n">
+        <v>52.26</v>
+      </c>
+      <c r="H162" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.603</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="G163" t="n">
+        <v>68.44</v>
+      </c>
+      <c r="H163" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.576</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="G164" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="G165" t="n">
+        <v>39.51</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="G166" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="H166" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G168" t="n">
+        <v>87.44</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="G169" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="H169" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="G170" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="H170" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.309</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="G171" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="H171" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="G172" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G173" t="n">
+        <v>64.03</v>
+      </c>
+      <c r="H173" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.011</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="G174" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="H174" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.401</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="G176" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="G177" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.034</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G178" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.287</v>
+      </c>
+      <c r="G179" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G180" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="H180" t="n">
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>
@@ -10572,7 +12252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16470,6 +18150,786 @@
       </c>
       <c r="H196" t="n">
         <v>15.8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.284</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="G197" t="n">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="G198" t="n">
+        <v>79.16</v>
+      </c>
+      <c r="H198" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="G199" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G200" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="G201" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="H201" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G202" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.302</v>
+      </c>
+      <c r="G203" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.619</v>
+      </c>
+      <c r="G204" t="n">
+        <v>62.96</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G205" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="H205" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="G206" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="G207" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="H207" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="G208" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="G209" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="H209" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="G210" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="H210" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="G211" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="H211" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="G212" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="H212" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>3</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="G213" t="n">
+        <v>79.05</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="G214" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="H214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="G215" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="H215" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.979</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="G216" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="H216" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>4</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="G217" t="n">
+        <v>82.87</v>
+      </c>
+      <c r="H217" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G218" t="n">
+        <v>66.53</v>
+      </c>
+      <c r="H218" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.551</v>
+      </c>
+      <c r="G219" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="H219" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="G220" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="H220" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G221" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="G222" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -16483,7 +18943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24391,6 +26851,1266 @@
       </c>
       <c r="H263" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="G264" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="H264" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>2</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="G265" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="H265" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G266" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="H266" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="G267" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="H267" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="G268" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="H268" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="G269" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="H269" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="G270" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="H270" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="G271" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="H271" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2.335</v>
+      </c>
+      <c r="G272" t="n">
+        <v>67.18000000000001</v>
+      </c>
+      <c r="H272" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.358</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="G273" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="G274" t="n">
+        <v>52.85</v>
+      </c>
+      <c r="H274" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="G275" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="H275" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="G276" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="H276" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="G277" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="H277" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>4</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="G278" t="n">
+        <v>66.88</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G279" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="H279" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G280" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="H280" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="G281" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="H281" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="G282" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="H282" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>3</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G283" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="G284" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="H284" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2.252</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G285" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G286" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="H286" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1.244</v>
+      </c>
+      <c r="G287" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="H287" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>2</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="G288" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="H288" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="G289" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="H289" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>2</v>
+      </c>
+      <c r="D290" t="n">
+        <v>4</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="G290" t="n">
+        <v>40.87</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="G291" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="H291" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>4</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G292" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="G293" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="H293" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>4</v>
+      </c>
+      <c r="D294" t="n">
+        <v>4</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="G294" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G295" t="n">
+        <v>54.24</v>
+      </c>
+      <c r="H295" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G296" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="H296" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="G297" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="H297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="G298" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="H298" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>6</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1.367</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="G299" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="G300" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="H300" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="G301" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G302" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="H302" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>3</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="G303" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="H303" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>2</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G304" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="H304" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="G305" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="H305" t="n">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -24404,7 +28124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30092,6 +33812,846 @@
       </c>
       <c r="H189" t="n">
         <v>17.9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G190" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="H190" t="n">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.567</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="G191" t="n">
+        <v>63.91</v>
+      </c>
+      <c r="H191" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="G192" t="n">
+        <v>57.46</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="G193" t="n">
+        <v>59.55</v>
+      </c>
+      <c r="H193" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="G194" t="n">
+        <v>55</v>
+      </c>
+      <c r="H194" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G195" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="H195" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="G196" t="n">
+        <v>74.65000000000001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="G197" t="n">
+        <v>75.22</v>
+      </c>
+      <c r="H197" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.084</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="G198" t="n">
+        <v>76.88</v>
+      </c>
+      <c r="H198" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.003</v>
+      </c>
+      <c r="G199" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G200" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="H200" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.609</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G201" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="H201" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="G202" t="n">
+        <v>54.57</v>
+      </c>
+      <c r="H202" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="G203" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="H203" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="G204" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="G205" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G206" t="n">
+        <v>43.42</v>
+      </c>
+      <c r="H206" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="G207" t="n">
+        <v>69.84</v>
+      </c>
+      <c r="H207" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="G208" t="n">
+        <v>62.03</v>
+      </c>
+      <c r="H208" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G209" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H209" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="G210" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="H210" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G211" t="n">
+        <v>81.16</v>
+      </c>
+      <c r="H211" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>4</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="G212" t="n">
+        <v>38.27</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="G213" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H213" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="G214" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="G215" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="H215" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.368</v>
+      </c>
+      <c r="G216" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="H216" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="G217" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -30105,7 +34665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35315,6 +39875,1146 @@
         <v>11.5</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.303</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="G174" t="n">
+        <v>90.64</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="G175" t="n">
+        <v>52.51</v>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G176" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="H176" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.586</v>
+      </c>
+      <c r="G177" t="n">
+        <v>79.18000000000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="G178" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="H178" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="G179" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G180" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="G181" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="G182" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="G183" t="n">
+        <v>64.53</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="G184" t="n">
+        <v>43.13</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="G185" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="H185" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G186" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="H186" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="G187" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.484</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="G188" t="n">
+        <v>75.14</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="G189" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="H189" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="G190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="H190" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.277</v>
+      </c>
+      <c r="G191" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="G192" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="G193" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="H193" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="G194" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="H194" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="G195" t="n">
+        <v>53.87</v>
+      </c>
+      <c r="H195" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="G196" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="G197" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="H197" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G198" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="H198" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G199" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="H199" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.547</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="G200" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="H200" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="G201" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="H201" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.763</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G202" t="n">
+        <v>45.53</v>
+      </c>
+      <c r="H202" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.047</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="G203" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="H203" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>3</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="G204" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="G205" t="n">
+        <v>33.39</v>
+      </c>
+      <c r="H205" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="G206" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="H206" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="G207" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="H207" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="G208" t="n">
+        <v>33.86</v>
+      </c>
+      <c r="H208" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="H209" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G210" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="H210" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.481</v>
+      </c>
+      <c r="G211" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="H211" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -6821,7 +6821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12239,6 +12239,216 @@
       </c>
       <c r="H180" t="n">
         <v>11.2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="G181" t="n">
+        <v>46.04</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>3</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.302</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="G182" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="H182" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="G183" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.613</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="G184" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="H184" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="G185" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="H185" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G186" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G187" t="n">
+        <v>63.94</v>
+      </c>
+      <c r="H187" t="n">
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -12252,7 +12462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18930,6 +19140,156 @@
       </c>
       <c r="H222" t="n">
         <v>6.7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="G223" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="H223" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G224" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="H224" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="G225" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="G226" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="H226" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="G227" t="n">
+        <v>55.62</v>
+      </c>
+      <c r="H227" t="n">
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -18943,7 +19303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28111,6 +28471,336 @@
       </c>
       <c r="H305" t="n">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>2</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="G306" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="H306" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1.639</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="G307" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="H307" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="G308" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="H308" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="G309" t="n">
+        <v>44.32</v>
+      </c>
+      <c r="H309" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="G310" t="n">
+        <v>65.47</v>
+      </c>
+      <c r="H310" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="G311" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="H311" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>3</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="G312" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="H312" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2.358</v>
+      </c>
+      <c r="F313" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="G313" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G314" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H314" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>2</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="G315" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="H315" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1.631</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="G316" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H316" t="n">
+        <v>11.7</v>
       </c>
     </row>
   </sheetData>
@@ -28124,7 +28814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34652,6 +35342,126 @@
       </c>
       <c r="H217" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.187</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G218" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="H218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.306</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.176</v>
+      </c>
+      <c r="G219" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="H219" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G220" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="G221" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="H221" t="n">
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>
@@ -34665,7 +35475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41015,6 +41825,96 @@
         <v>6.7</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G212" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="G213" t="n">
+        <v>59.61</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>5</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="G214" t="n">
+        <v>61.04</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6808,6 +6808,186 @@
       </c>
       <c r="H212" t="n">
         <v>5.3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G213" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="G214" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="H214" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="G215" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>4</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G216" t="n">
+        <v>79.54000000000001</v>
+      </c>
+      <c r="H216" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.371</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.417</v>
+      </c>
+      <c r="G217" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="H217" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="G218" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6821,7 +7001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12449,6 +12629,276 @@
       </c>
       <c r="H187" t="n">
         <v>5.4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.311</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="G188" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="H188" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.403</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="G189" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.561</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G190" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="H190" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="G191" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="H191" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="G192" t="n">
+        <v>37.81</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.787</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="G193" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.206</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="G194" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="H194" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="G195" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.215</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="G196" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -12462,7 +12912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19290,6 +19740,366 @@
       </c>
       <c r="H227" t="n">
         <v>6.2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.302</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G228" t="n">
+        <v>96.48999999999999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.014</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="G229" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="H229" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G230" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="H230" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G231" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="H231" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.609</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="G232" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2.324</v>
+      </c>
+      <c r="G233" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="H233" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="G234" t="n">
+        <v>79.12</v>
+      </c>
+      <c r="H234" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G235" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="G236" t="n">
+        <v>51.42</v>
+      </c>
+      <c r="H236" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="G237" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="H237" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="G238" t="n">
+        <v>70.98</v>
+      </c>
+      <c r="H238" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="G239" t="n">
+        <v>87.23</v>
+      </c>
+      <c r="H239" t="n">
+        <v>10.7</v>
       </c>
     </row>
   </sheetData>
@@ -19303,7 +20113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28801,6 +29611,486 @@
       </c>
       <c r="H316" t="n">
         <v>11.7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>4</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="G317" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>3</v>
+      </c>
+      <c r="D318" t="n">
+        <v>3</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="F318" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G318" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1.253</v>
+      </c>
+      <c r="G319" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="H319" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G320" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="H320" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G321" t="n">
+        <v>51.86</v>
+      </c>
+      <c r="H321" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="G322" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="G323" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1.601</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="G324" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="H324" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>5</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E325" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="G325" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>3</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="G326" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="H326" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>3</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="G327" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="H327" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="G328" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="H328" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="G329" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="H329" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>5</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G330" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G331" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="H331" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="G332" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="H332" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -28814,7 +30104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35462,6 +36752,396 @@
       </c>
       <c r="H221" t="n">
         <v>8.9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="G222" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="H222" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="G223" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="H223" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>3</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="G224" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="G225" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="H225" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G226" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="H226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="G227" t="n">
+        <v>57.21</v>
+      </c>
+      <c r="H227" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="G228" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="H228" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>4</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="G229" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.648</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="G230" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.416</v>
+      </c>
+      <c r="G231" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="G232" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="H232" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="G233" t="n">
+        <v>53.89</v>
+      </c>
+      <c r="H233" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="G234" t="n">
+        <v>49.62</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -35475,7 +37155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41915,6 +43595,306 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="G215" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="H215" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.417</v>
+      </c>
+      <c r="G216" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="H216" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="G217" t="n">
+        <v>57.94</v>
+      </c>
+      <c r="H217" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="G218" t="n">
+        <v>79.73</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="G219" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="H219" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.277</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="G220" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="H220" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G221" t="n">
+        <v>90.37</v>
+      </c>
+      <c r="H221" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="G222" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="G223" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="H223" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="G224" t="n">
+        <v>90.88</v>
+      </c>
+      <c r="H224" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6988,6 +6988,606 @@
       </c>
       <c r="H218" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="G219" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="G220" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="H220" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G221" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="H221" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="G222" t="n">
+        <v>42.46</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.602</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="G223" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G224" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="H224" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="G225" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="H225" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.734</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="G226" t="n">
+        <v>87.67</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G227" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="G228" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="G229" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="H229" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G230" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="H230" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="G231" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="H231" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>2</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="G232" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="H232" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>3</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.202</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="G233" t="n">
+        <v>58.86</v>
+      </c>
+      <c r="H233" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="G234" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="H234" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="G235" t="n">
+        <v>40.06</v>
+      </c>
+      <c r="H235" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="G236" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="H236" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G237" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="H237" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="G238" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="H238" t="n">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -7001,7 +7601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12899,6 +13499,576 @@
       </c>
       <c r="H196" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.476</v>
+      </c>
+      <c r="G197" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="G198" t="n">
+        <v>47.47</v>
+      </c>
+      <c r="H198" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G199" t="n">
+        <v>57.78</v>
+      </c>
+      <c r="H199" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="G200" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="H200" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.649</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="G201" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.854</v>
+      </c>
+      <c r="G202" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="H202" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.311</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="G203" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>4</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="G204" t="n">
+        <v>73.51000000000001</v>
+      </c>
+      <c r="H204" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G205" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.601</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="G206" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="H206" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2.658</v>
+      </c>
+      <c r="G207" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2.413</v>
+      </c>
+      <c r="G208" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G209" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>5</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="G210" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G211" t="n">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="G212" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="H212" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="G213" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="H213" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="G214" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="H214" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="G215" t="n">
+        <v>61.16</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -12912,7 +14082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20100,6 +21270,606 @@
       </c>
       <c r="H239" t="n">
         <v>10.7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>3</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="G240" t="n">
+        <v>51.82</v>
+      </c>
+      <c r="H240" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3.777</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G241" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="H241" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="G242" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="H242" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2.593</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="G243" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="H243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="G244" t="n">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="H244" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="G245" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="H245" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>5</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="G246" t="n">
+        <v>75.23999999999999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="G247" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="H247" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>3</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2.512</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="G248" t="n">
+        <v>78</v>
+      </c>
+      <c r="H248" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3.587</v>
+      </c>
+      <c r="G249" t="n">
+        <v>92.27</v>
+      </c>
+      <c r="H249" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1.387</v>
+      </c>
+      <c r="G250" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="H250" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>2</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G251" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G252" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="H252" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="G253" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>5</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="G254" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G255" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H255" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="G256" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="H256" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.217</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="G257" t="n">
+        <v>70.38</v>
+      </c>
+      <c r="H257" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>2</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G258" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="H258" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2.351</v>
+      </c>
+      <c r="G259" t="n">
+        <v>72.77</v>
+      </c>
+      <c r="H259" t="n">
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
@@ -20113,7 +21883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H332"/>
+  <dimension ref="A1:H349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30091,6 +31861,516 @@
       </c>
       <c r="H332" t="n">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>7</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="F333" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="G333" t="n">
+        <v>56.06</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="F334" t="n">
+        <v>1.338</v>
+      </c>
+      <c r="G334" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="H334" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>4</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1.802</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G335" t="n">
+        <v>70.11</v>
+      </c>
+      <c r="H335" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1.483</v>
+      </c>
+      <c r="G336" t="n">
+        <v>34.06</v>
+      </c>
+      <c r="H336" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G337" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="H337" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>4</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="G338" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>4</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="F339" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="G339" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>5</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1.619</v>
+      </c>
+      <c r="G340" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="G341" t="n">
+        <v>67.67</v>
+      </c>
+      <c r="H341" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="G342" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="H342" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>2</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G343" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="H343" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F344" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="G344" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="H344" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="G345" t="n">
+        <v>56.09</v>
+      </c>
+      <c r="H345" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="G346" t="n">
+        <v>47.47</v>
+      </c>
+      <c r="H346" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="F347" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="G347" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="H347" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="G348" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="H348" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="G349" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="H349" t="n">
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -30104,7 +32384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37142,6 +39422,216 @@
       </c>
       <c r="H234" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="G235" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>4</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G236" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G237" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="H237" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.763</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="G238" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="H238" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="G239" t="n">
+        <v>47.68</v>
+      </c>
+      <c r="H239" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.955</v>
+      </c>
+      <c r="G240" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="G241" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="H241" t="n">
+        <v>12.9</v>
       </c>
     </row>
   </sheetData>
